--- a/example_data/EPA/label_corrected/089459-00087-20160824_2018-12-08_204500.xlsx
+++ b/example_data/EPA/label_corrected/089459-00087-20160824_2018-12-08_204500.xlsx
@@ -830,7 +830,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -970,7 +970,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Irrigation || Use Restrictions</t>
+          <t>use restrictions || irrigation</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
